--- a/Documents/Таблицы ИДС/Поля в АРМЕ.xlsx
+++ b/Documents/Таблицы ИДС/Поля в АРМЕ.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Таблицы ИДС\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edik\OneDrive\Документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Таблицы ИДС\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3263B618-E43F-4E71-93A3-8B090BBBA3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F2F606A-0B45-49D2-A218-F667514D7B57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="основное окно" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -550,9 +549,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -566,6 +562,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,12 +623,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -602,40 +632,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -954,11 +950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533AE13B-D9DB-4A49-922F-96EA90946CCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="CA4" sqref="CA4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,181 +994,181 @@
       </c>
     </row>
     <row r="3" spans="1:81" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="37" t="s">
+      <c r="T3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="U3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="V3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="40" t="s">
+      <c r="W3" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="X3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="Y3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="37" t="s">
+      <c r="AA3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="26" t="s">
+      <c r="AB3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="27" t="s">
+      <c r="AC3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="28" t="s">
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="20" t="s">
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="20" t="s">
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="21"/>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3" s="21"/>
-      <c r="AZ3" s="21"/>
-      <c r="BA3" s="21"/>
-      <c r="BB3" s="21"/>
-      <c r="BC3" s="21"/>
-      <c r="BD3" s="21"/>
-      <c r="BE3" s="21"/>
-      <c r="BF3" s="22"/>
-      <c r="BG3" s="31" t="s">
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="20" t="s">
         <v>59</v>
       </c>
       <c r="BH3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BI3" s="20" t="s">
+      <c r="BI3" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="BJ3" s="21"/>
-      <c r="BK3" s="21"/>
-      <c r="BL3" s="22"/>
-      <c r="BM3" s="20" t="s">
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="34"/>
+      <c r="BL3" s="35"/>
+      <c r="BM3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="BN3" s="21"/>
-      <c r="BO3" s="21"/>
-      <c r="BP3" s="21"/>
-      <c r="BQ3" s="21"/>
-      <c r="BR3" s="22"/>
-      <c r="BS3" s="41" t="s">
+      <c r="BN3" s="34"/>
+      <c r="BO3" s="34"/>
+      <c r="BP3" s="34"/>
+      <c r="BQ3" s="34"/>
+      <c r="BR3" s="35"/>
+      <c r="BS3" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BT3" s="41" t="s">
+      <c r="BT3" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="BU3" s="41" t="s">
+      <c r="BU3" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="BV3" s="33" t="s">
+      <c r="BV3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="BW3" s="41" t="s">
+      <c r="BW3" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="BX3" s="41" t="s">
+      <c r="BX3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BY3" s="41" t="s">
+      <c r="BY3" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="BZ3" s="36" t="s">
+      <c r="BZ3" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="CA3" s="41" t="s">
+      <c r="CA3" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="CB3" s="41" t="s">
+      <c r="CB3" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="CC3" s="41" t="s">
+      <c r="CC3" s="30" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1197,67 +1193,67 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" s="17" t="s">
         <v>91</v>
       </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="37" t="s">
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AE4" s="37" t="s">
+      <c r="AE4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="37" t="s">
+      <c r="AF4" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="AG4" s="37" t="s">
+      <c r="AG4" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AH4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="31" t="s">
+      <c r="AI4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AJ4" s="31" t="s">
+      <c r="AJ4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="31" t="s">
+      <c r="AK4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AL4" s="31" t="s">
+      <c r="AL4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AM4" s="31" t="s">
+      <c r="AM4" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="AN4" s="41" t="s">
+      <c r="AN4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="AO4" s="41" t="s">
+      <c r="AO4" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" s="41" t="s">
+      <c r="AP4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AQ4" s="41" t="s">
+      <c r="AQ4" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AR4" s="41" t="s">
+      <c r="AR4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="41" t="s">
+      <c r="AS4" s="30" t="s">
         <v>44</v>
       </c>
       <c r="AT4" s="12" t="s">
@@ -1293,67 +1289,67 @@
       <c r="BD4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BE4" s="31" t="s">
+      <c r="BE4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="BF4" s="31" t="s">
+      <c r="BF4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="BG4" s="32"/>
+      <c r="BG4" s="21"/>
       <c r="BH4" s="12"/>
-      <c r="BI4" s="41" t="s">
+      <c r="BI4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="BJ4" s="41" t="s">
+      <c r="BJ4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="BK4" s="41" t="s">
+      <c r="BK4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="BL4" s="41" t="s">
+      <c r="BL4" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="BM4" s="36" t="s">
+      <c r="BM4" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="BN4" s="36" t="s">
+      <c r="BN4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="BO4" s="36" t="s">
+      <c r="BO4" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="BP4" s="13" t="s">
+      <c r="BP4" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BQ4" s="12" t="s">
+      <c r="BQ4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="BR4" s="12" t="s">
+      <c r="BR4" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="BS4" s="15" t="s">
+      <c r="BS4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="BT4" s="17"/>
-      <c r="BU4" s="17"/>
-      <c r="BV4" s="33"/>
-      <c r="BW4" s="15"/>
-      <c r="BX4" s="17"/>
-      <c r="BY4" s="15"/>
+      <c r="BT4" s="16"/>
+      <c r="BU4" s="16"/>
+      <c r="BV4" s="22"/>
+      <c r="BW4" s="14"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="14"/>
       <c r="BZ4" s="12"/>
       <c r="CA4" s="12"/>
       <c r="CB4" s="12"/>
-      <c r="CC4" s="34" t="s">
+      <c r="CC4" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
     </row>
     <row r="6" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1364,125 +1360,125 @@
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14" t="s">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="X7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="Y7" s="15" t="s">
+      <c r="Y7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Z7" s="23" t="s">
+      <c r="Z7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="15" t="s">
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15" t="s">
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:81" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="15" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AA8" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AB8" s="15" t="s">
+      <c r="AB8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AC8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="17"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:81" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
@@ -1769,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB5BB97-7069-426B-B56A-70F2274D385E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Documents/Таблицы ИДС/Поля в АРМЕ.xlsx
+++ b/Documents/Таблицы ИДС/Поля в АРМЕ.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edik\OneDrive\Документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Таблицы ИДС\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Таблицы ИДС\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82265E04-F289-4B86-B457-A98F44D9FCD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="основное окно" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -341,7 +342,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -559,9 +563,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -601,7 +602,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,6 +630,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -950,11 +961,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:CC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,6 +977,7 @@
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.42578125" customWidth="1"/>
     <col min="22" max="22" width="8.7109375" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" customWidth="1"/>
@@ -994,266 +1006,266 @@
       </c>
     </row>
     <row r="3" spans="1:81" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="U3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="X3" s="30" t="s">
+      <c r="X3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="26" t="s">
+      <c r="Y3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AA3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="39" t="s">
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="33" t="s">
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="33" t="s">
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="34"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="34"/>
-      <c r="BD3" s="34"/>
-      <c r="BE3" s="34"/>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="20" t="s">
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="19" t="s">
         <v>59</v>
       </c>
       <c r="BH3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BI3" s="33" t="s">
+      <c r="BI3" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="BJ3" s="34"/>
-      <c r="BK3" s="34"/>
-      <c r="BL3" s="35"/>
-      <c r="BM3" s="33" t="s">
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="33"/>
+      <c r="BM3" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="BN3" s="34"/>
-      <c r="BO3" s="34"/>
-      <c r="BP3" s="34"/>
-      <c r="BQ3" s="34"/>
-      <c r="BR3" s="35"/>
-      <c r="BS3" s="30" t="s">
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="33"/>
+      <c r="BS3" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BT3" s="30" t="s">
+      <c r="BT3" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="BU3" s="30" t="s">
+      <c r="BU3" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="BV3" s="22" t="s">
+      <c r="BV3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="BW3" s="30" t="s">
+      <c r="BW3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="BX3" s="30" t="s">
+      <c r="BX3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="BY3" s="30" t="s">
+      <c r="BY3" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BZ3" s="25" t="s">
+      <c r="BZ3" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="CA3" s="30" t="s">
+      <c r="CA3" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="CB3" s="30" t="s">
+      <c r="CB3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="CC3" s="30" t="s">
+      <c r="CC3" s="29" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:81" ht="144" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="17" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="V4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="26" t="s">
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AE4" s="26" t="s">
+      <c r="AE4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="26" t="s">
+      <c r="AF4" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="AG4" s="26" t="s">
+      <c r="AG4" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="AH4" s="20" t="s">
+      <c r="AH4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="20" t="s">
+      <c r="AI4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AJ4" s="20" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="20" t="s">
+      <c r="AK4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AL4" s="20" t="s">
+      <c r="AL4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AM4" s="20" t="s">
+      <c r="AM4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AN4" s="30" t="s">
+      <c r="AN4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AO4" s="30" t="s">
+      <c r="AO4" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" s="30" t="s">
+      <c r="AP4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AQ4" s="30" t="s">
+      <c r="AQ4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AR4" s="30" t="s">
+      <c r="AR4" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="30" t="s">
+      <c r="AS4" s="29" t="s">
         <v>44</v>
       </c>
       <c r="AT4" s="12" t="s">
@@ -1289,42 +1301,42 @@
       <c r="BD4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BE4" s="20" t="s">
+      <c r="BE4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="BF4" s="20" t="s">
+      <c r="BF4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="BG4" s="21"/>
+      <c r="BG4" s="20"/>
       <c r="BH4" s="12"/>
-      <c r="BI4" s="30" t="s">
+      <c r="BI4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="BJ4" s="30" t="s">
+      <c r="BJ4" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="BK4" s="30" t="s">
+      <c r="BK4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BL4" s="30" t="s">
+      <c r="BL4" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="BM4" s="30" t="s">
+      <c r="BM4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BN4" s="30" t="s">
+      <c r="BN4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BO4" s="30" t="s">
+      <c r="BO4" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BP4" s="30" t="s">
+      <c r="BP4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BQ4" s="30" t="s">
+      <c r="BQ4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BR4" s="30" t="s">
+      <c r="BR4" s="29" t="s">
         <v>71</v>
       </c>
       <c r="BS4" s="14" t="s">
@@ -1332,24 +1344,24 @@
       </c>
       <c r="BT4" s="16"/>
       <c r="BU4" s="16"/>
-      <c r="BV4" s="22"/>
+      <c r="BV4" s="21"/>
       <c r="BW4" s="14"/>
       <c r="BX4" s="16"/>
       <c r="BY4" s="14"/>
       <c r="BZ4" s="12"/>
       <c r="CA4" s="12"/>
       <c r="CB4" s="12"/>
-      <c r="CC4" s="23" t="s">
+      <c r="CC4" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="U5" s="32" t="s">
+      <c r="U5" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1424,12 +1436,12 @@
       <c r="Y7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Z7" s="36" t="s">
+      <c r="Z7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="38"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="36"/>
       <c r="AD7" s="14" t="s">
         <v>83</v>
       </c>
@@ -1765,7 +1777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Documents/Таблицы ИДС/Поля в АРМЕ.xlsx
+++ b/Documents/Таблицы ИДС/Поля в АРМЕ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Таблицы ИДС\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82265E04-F289-4B86-B457-A98F44D9FCD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F1C231-F072-4122-AABE-C823D9C3B6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,7 +344,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -529,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -602,6 +602,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,14 +644,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -964,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:CC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AI30" sqref="AI30"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BS30" sqref="BS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,63 +1096,63 @@
       <c r="AC3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="31" t="s">
+      <c r="AD3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="37" t="s">
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="31" t="s">
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="31" t="s">
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="32"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="33"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="37"/>
+      <c r="AX3" s="37"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="38"/>
       <c r="BG3" s="19" t="s">
         <v>59</v>
       </c>
       <c r="BH3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BI3" s="31" t="s">
+      <c r="BI3" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="32"/>
-      <c r="BL3" s="33"/>
-      <c r="BM3" s="31" t="s">
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="32"/>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="33"/>
+      <c r="BN3" s="37"/>
+      <c r="BO3" s="37"/>
+      <c r="BP3" s="37"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="38"/>
       <c r="BS3" s="29" t="s">
         <v>87</v>
       </c>
@@ -1185,51 +1188,51 @@
       </c>
     </row>
     <row r="4" spans="1:81" ht="144" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="44" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="34" t="s">
         <v>86</v>
       </c>
       <c r="V4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="W4" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="25" t="s">
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AE4" s="40" t="s">
+      <c r="AE4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="40" t="s">
+      <c r="AF4" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="AG4" s="40" t="s">
+      <c r="AG4" s="30" t="s">
         <v>100</v>
       </c>
       <c r="AH4" s="19" t="s">
@@ -1250,22 +1253,22 @@
       <c r="AM4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AN4" s="29" t="s">
+      <c r="AN4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="AO4" s="29" t="s">
+      <c r="AO4" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" s="29" t="s">
+      <c r="AP4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AQ4" s="29" t="s">
+      <c r="AQ4" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AR4" s="29" t="s">
+      <c r="AR4" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="29" t="s">
+      <c r="AS4" s="45" t="s">
         <v>44</v>
       </c>
       <c r="AT4" s="12" t="s">
@@ -1309,28 +1312,28 @@
       </c>
       <c r="BG4" s="20"/>
       <c r="BH4" s="12"/>
-      <c r="BI4" s="29" t="s">
+      <c r="BI4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="BJ4" s="29" t="s">
+      <c r="BJ4" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="BK4" s="29" t="s">
+      <c r="BK4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="BL4" s="29" t="s">
+      <c r="BL4" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="BM4" s="29" t="s">
+      <c r="BM4" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="BN4" s="29" t="s">
+      <c r="BN4" s="45" t="s">
         <v>68</v>
       </c>
       <c r="BO4" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BP4" s="29" t="s">
+      <c r="BP4" s="45" t="s">
         <v>69</v>
       </c>
       <c r="BQ4" s="29" t="s">
@@ -1357,11 +1360,11 @@
     </row>
     <row r="5" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="U5" s="30" t="s">
+      <c r="U5" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
     </row>
     <row r="6" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1436,12 +1439,12 @@
       <c r="Y7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Z7" s="34" t="s">
+      <c r="Z7" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="36"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="41"/>
       <c r="AD7" s="14" t="s">
         <v>83</v>
       </c>

--- a/Documents/Таблицы ИДС/Поля в АРМЕ.xlsx
+++ b/Documents/Таблицы ИДС/Поля в АРМЕ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Таблицы ИДС\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F1C231-F072-4122-AABE-C823D9C3B6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BE5F9B-01B1-408E-AF88-04464F3AA338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
   <si>
     <t>№</t>
   </si>
@@ -337,6 +337,129 @@
   </si>
   <si>
     <t>факт путь, ч</t>
+  </si>
+  <si>
+    <t>Статус отправл состава</t>
+  </si>
+  <si>
+    <t>Норма ст.</t>
+  </si>
+  <si>
+    <t>Факт ст.</t>
+  </si>
+  <si>
+    <t>Факт.путь</t>
+  </si>
+  <si>
+    <t>Цех отправитель В/З</t>
+  </si>
+  <si>
+    <t>Цех-получатель В/З</t>
+  </si>
+  <si>
+    <t>Груз В/З</t>
+  </si>
+  <si>
+    <t>№ накладной В/З</t>
+  </si>
+  <si>
+    <t>Тупик погрузки В/З</t>
+  </si>
+  <si>
+    <t>Можно объединить ?</t>
+  </si>
+  <si>
+    <t>Дата и время в одном поле ?</t>
+  </si>
+  <si>
+    <t>Инд.</t>
+  </si>
+  <si>
+    <t>Дата деп. ремонта по УЗ</t>
+  </si>
+  <si>
+    <t>Г/п, тн</t>
+  </si>
+  <si>
+    <t>Ком. состояние</t>
+  </si>
+  <si>
+    <t>Наличие документа  на  УЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вх.пост Дата создания </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вх.пост Наименование склада </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вх.пост Склад </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вх.пост Наименование груза </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вх.пост Время создания </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вх.пост № </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исх.пост  Код ЕТСНГ </t>
+  </si>
+  <si>
+    <t>Исх.пост Наименование груза</t>
+  </si>
+  <si>
+    <t>Исх.пост Код станции назначения</t>
+  </si>
+  <si>
+    <t>Исх.пост Станция назначения</t>
+  </si>
+  <si>
+    <t>Исх.пост Погранпереход</t>
+  </si>
+  <si>
+    <t>Исх.пост Код получателя</t>
+  </si>
+  <si>
+    <t>Исх.пост Получатель</t>
+  </si>
+  <si>
+    <t>Исх.пост Плательщик</t>
+  </si>
+  <si>
+    <t>Исх.пост Код склада</t>
+  </si>
+  <si>
+    <t>Исх.пост Грузоотправитель</t>
+  </si>
+  <si>
+    <t>Исх.пост Вес нетто</t>
+  </si>
+  <si>
+    <t>оранжевый</t>
+  </si>
+  <si>
+    <t>желтый</t>
+  </si>
+  <si>
+    <t>синий</t>
+  </si>
+  <si>
+    <t>зеленый</t>
+  </si>
+  <si>
+    <t>сиреневый</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>серый</t>
+  </si>
+  <si>
+    <t>Причина возврата при отпр. УЗ</t>
   </si>
 </sst>
 </file>
@@ -346,7 +469,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,8 +498,24 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,13 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFD1D1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -578,13 +723,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -613,9 +755,57 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -641,9 +831,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -655,6 +842,7 @@
   <colors>
     <mruColors>
       <color rgb="FFFFB5A3"/>
+      <color rgb="FFD1D1FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -965,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:CC28"/>
+  <dimension ref="A2:CD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BS30" sqref="BS30"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BM34" sqref="BM34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,110 +1172,112 @@
     <col min="21" max="21" width="9.42578125" customWidth="1"/>
     <col min="22" max="22" width="8.7109375" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" customWidth="1"/>
     <col min="32" max="32" width="7.5703125" customWidth="1"/>
-    <col min="33" max="33" width="8.7109375" customWidth="1"/>
-    <col min="34" max="34" width="10.28515625" customWidth="1"/>
-    <col min="40" max="40" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.28515625" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" customWidth="1"/>
-    <col min="53" max="53" width="9.85546875" customWidth="1"/>
-    <col min="54" max="54" width="6.85546875" customWidth="1"/>
-    <col min="56" max="56" width="7.28515625" customWidth="1"/>
-    <col min="57" max="57" width="7" customWidth="1"/>
+    <col min="33" max="37" width="8.7109375" customWidth="1"/>
+    <col min="38" max="38" width="10.28515625" customWidth="1"/>
+    <col min="44" max="44" width="6.28515625" customWidth="1"/>
+    <col min="46" max="46" width="16" customWidth="1"/>
+    <col min="50" max="50" width="11.28515625" customWidth="1"/>
+    <col min="56" max="56" width="9.7109375" customWidth="1"/>
+    <col min="57" max="57" width="9.85546875" customWidth="1"/>
     <col min="58" max="58" width="6.85546875" customWidth="1"/>
-    <col min="71" max="71" width="9.42578125" customWidth="1"/>
+    <col min="60" max="60" width="7.28515625" customWidth="1"/>
+    <col min="61" max="61" width="7" customWidth="1"/>
+    <col min="62" max="62" width="6.85546875" customWidth="1"/>
+    <col min="65" max="65" width="9.42578125" customWidth="1"/>
     <col min="73" max="73" width="8.140625" customWidth="1"/>
     <col min="76" max="76" width="8.28515625" customWidth="1"/>
-    <col min="79" max="79" width="8.85546875" customWidth="1"/>
-    <col min="80" max="80" width="9.42578125" customWidth="1"/>
-    <col min="81" max="81" width="9.7109375" customWidth="1"/>
+    <col min="80" max="80" width="8.85546875" customWidth="1"/>
+    <col min="81" max="81" width="9.42578125" customWidth="1"/>
+    <col min="82" max="82" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:81" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:82" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="28" t="s">
+      <c r="W3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="X3" s="29" t="s">
+      <c r="X3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="AB3" s="17" t="s">
@@ -1096,282 +1286,286 @@
       <c r="AC3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="36" t="s">
+      <c r="AD3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="42" t="s">
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="36" t="s">
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="36" t="s">
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="19" t="s">
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52"/>
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="53"/>
+      <c r="BK3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="BH3" s="12" t="s">
+      <c r="BL3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BI3" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="38"/>
-      <c r="BM3" s="36" t="s">
+      <c r="BM3" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN3" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="38"/>
-      <c r="BS3" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT3" s="29" t="s">
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="53"/>
+      <c r="BT3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="BU3" s="29" t="s">
+      <c r="BU3" s="28" t="s">
         <v>77</v>
       </c>
       <c r="BV3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="BW3" s="29" t="s">
+      <c r="BW3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="BX3" s="29" t="s">
+      <c r="BX3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="BY3" s="29" t="s">
+      <c r="BY3" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="BZ3" s="24" t="s">
+      <c r="BZ3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="CA3" s="29" t="s">
+      <c r="CA3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="CB3" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="CB3" s="29" t="s">
+      <c r="CC3" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="CC3" s="29" t="s">
+      <c r="CD3" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:81" ht="144" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="34" t="s">
+    <row r="4" spans="1:82" ht="144" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="V4" s="23" t="s">
+      <c r="V4" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="W4" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="30" t="s">
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AE4" s="30" t="s">
+      <c r="AE4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="30" t="s">
+      <c r="AF4" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="AG4" s="30" t="s">
+      <c r="AG4" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AH4" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI4" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ4" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK4" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AM4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="AN4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AO4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AL4" s="19" t="s">
+      <c r="AP4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AM4" s="19" t="s">
+      <c r="AQ4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AN4" s="45" t="s">
+      <c r="AR4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AO4" s="45" t="s">
+      <c r="AS4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" s="45" t="s">
+      <c r="AT4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AQ4" s="45" t="s">
+      <c r="AU4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AR4" s="45" t="s">
+      <c r="AV4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="45" t="s">
+      <c r="AW4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AT4" s="12" t="s">
+      <c r="AX4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AU4" s="12" t="s">
+      <c r="AY4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AZ4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AW4" s="12" t="s">
+      <c r="BA4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AX4" s="12" t="s">
+      <c r="BB4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AY4" s="12" t="s">
+      <c r="BC4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AZ4" s="12" t="s">
+      <c r="BD4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="BA4" s="12" t="s">
+      <c r="BE4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BB4" s="12" t="s">
+      <c r="BF4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BC4" s="12" t="s">
+      <c r="BG4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BH4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BE4" s="19" t="s">
+      <c r="BI4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="BF4" s="19" t="s">
+      <c r="BJ4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="12"/>
-      <c r="BI4" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ4" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK4" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="BL4" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM4" s="45" t="s">
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="BN4" s="45" t="s">
+      <c r="BO4" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="BO4" s="29" t="s">
+      <c r="BP4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="BP4" s="45" t="s">
+      <c r="BQ4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="BQ4" s="29" t="s">
+      <c r="BR4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="BR4" s="29" t="s">
+      <c r="BS4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="BS4" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT4" s="16"/>
-      <c r="BU4" s="16"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
       <c r="BV4" s="21"/>
-      <c r="BW4" s="14"/>
-      <c r="BX4" s="16"/>
-      <c r="BY4" s="14"/>
-      <c r="BZ4" s="12"/>
-      <c r="CA4" s="12"/>
-      <c r="CB4" s="12"/>
-      <c r="CC4" s="22" t="s">
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-    </row>
-    <row r="6" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+    </row>
+    <row r="6" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:81" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1439,12 +1633,12 @@
       <c r="Y7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Z7" s="39" t="s">
+      <c r="Z7" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="41"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="56"/>
       <c r="AD7" s="14" t="s">
         <v>83</v>
       </c>
@@ -1453,7 +1647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:81" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="13"/>
       <c r="C8" s="15"/>
@@ -1495,13 +1689,13 @@
       <c r="AE8" s="14"/>
       <c r="AF8" s="16"/>
     </row>
-    <row r="9" spans="1:81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:81" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -1561,13 +1755,13 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:81" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:82" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1627,13 +1821,13 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -1693,13 +1887,13 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:82" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -1759,20 +1953,345 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:82" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:82" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:82" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:82" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:82" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="W29" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="X29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC29" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD29" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE29" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF29" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG29" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH29" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI29" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ29" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK29" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL29" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM29" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN29" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO29" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP29" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ29" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR29" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS29" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT29" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU29" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV29" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW29" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX29" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY29" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ29" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA29" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB29" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC29" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD29" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE29" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF29" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG29" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH29" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ29" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM29" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN29" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO29" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP29" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR29" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS29" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT29" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU29" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BV29" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW29" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX29" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY29" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="BZ29" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA29" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="CB29" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC29" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="CD29" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="AD30" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="48"/>
+      <c r="AP30" s="48"/>
+      <c r="AQ30" s="48"/>
+      <c r="AS30" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT30" s="46"/>
+      <c r="AX30" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY30" s="50"/>
+      <c r="AZ30" s="50"/>
+      <c r="BA30" s="50"/>
+      <c r="BB30" s="50"/>
+      <c r="BC30" s="50"/>
+      <c r="BD30" s="50"/>
+      <c r="BE30" s="50"/>
+      <c r="BF30" s="50"/>
+      <c r="BG30" s="50"/>
+      <c r="BH30" s="50"/>
+      <c r="BI30" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ30" s="42"/>
+      <c r="BK30" s="42"/>
+      <c r="BN30" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO30" s="44"/>
+      <c r="BP30" s="44"/>
+      <c r="BQ30" s="44"/>
+      <c r="BR30" s="44"/>
+      <c r="BS30" s="44"/>
+    </row>
+    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="AS31" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT31" s="47"/>
+    </row>
+    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="AR32" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="49"/>
+      <c r="AV32" s="49"/>
+      <c r="AW32" s="49"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="AT3:BF3"/>
-    <mergeCell ref="BI3:BL3"/>
-    <mergeCell ref="BM3:BR3"/>
+  <mergeCells count="17">
+    <mergeCell ref="AX3:BJ3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="BN3:BS3"/>
     <mergeCell ref="Z7:AC7"/>
     <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AM3"/>
-    <mergeCell ref="AN3:AS3"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AR3:AW3"/>
+    <mergeCell ref="AS31:AT31"/>
+    <mergeCell ref="AL30:AQ30"/>
+    <mergeCell ref="AR32:AW32"/>
+    <mergeCell ref="AX30:BH30"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="BN30:BS30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AS30:AT30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
